--- a/FuseLinks/Linha.xlsx
+++ b/FuseLinks/Linha.xlsx
@@ -451,52 +451,52 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>I_A_Isolador</t>
+          <t>Tempo Abertura Fase A Isolador</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tempo_A_Isolador</t>
+          <t>Abertura Fase A Isolador</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>I_B_Isolador</t>
+          <t>Tempo Abertura Fase B Isolador</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Tempo_B_Isolador</t>
+          <t>Abertura Fase B Isolador</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>I_C_Isolador</t>
+          <t>Tempo Abertura Fase C Isolador</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Tempo_C_Isolador</t>
+          <t>Abertura Fase C Isolador</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>I_A_Consumidor</t>
+          <t>Tempo Abertura Fase A Consumidor</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Tempo_A_Consumidor</t>
+          <t>Abertura Fase A Consumidor</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>I_B_Consumidor</t>
+          <t>Tempo Abertura Fase B Consumidor</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Tempo_B_Consumidor</t>
+          <t>Abertura Fase B Consumidor</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">

--- a/FuseLinks/Linha.xlsx
+++ b/FuseLinks/Linha.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Abertura Fase A Isolador</t>
+          <t>Corrente Fase A Isolador</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Abertura Fase B Isolador</t>
+          <t>Corrente Fase B Isolador</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Abertura Fase C Isolador</t>
+          <t>Corrente Fase C Isolador</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Abertura Fase A Consumidor</t>
+          <t>Corrente Fase A Consumidor</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Abertura Fase B Consumidor</t>
+          <t>Corrente Fase B Consumidor</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">

--- a/FuseLinks/Linha.xlsx
+++ b/FuseLinks/Linha.xlsx
@@ -562,7 +562,11 @@
       <c r="M2" t="n">
         <v>47.4275</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>1H</t>
@@ -629,7 +633,11 @@
       <c r="M3" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>1H</t>
@@ -694,7 +702,11 @@
       <c r="M4" t="n">
         <v>33.3261</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>1H</t>
@@ -761,7 +773,11 @@
       <c r="M5" t="n">
         <v>17.8067</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>1H</t>
@@ -830,7 +846,11 @@
       <c r="M6" t="n">
         <v>33.8341</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>1H</t>
@@ -897,7 +917,11 @@
       <c r="M7" t="n">
         <v>35.778</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>1H</t>
@@ -962,7 +986,11 @@
       <c r="M8" t="n">
         <v>46.0464</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1023,7 +1051,11 @@
       <c r="M9" t="n">
         <v>45.8266</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1092,7 +1124,11 @@
       <c r="M10" t="n">
         <v>12.734</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1153,7 +1189,11 @@
       <c r="M11" t="n">
         <v>30.319</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1222,7 +1262,11 @@
       <c r="M12" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1281,7 +1325,11 @@
       <c r="M13" t="n">
         <v>47.4275</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1348,7 +1396,11 @@
       <c r="M14" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1413,7 +1465,11 @@
       <c r="M15" t="n">
         <v>33.3261</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1480,7 +1536,11 @@
       <c r="M16" t="n">
         <v>17.8067</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1549,7 +1609,11 @@
       <c r="M17" t="n">
         <v>33.8341</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1616,7 +1680,11 @@
       <c r="M18" t="n">
         <v>35.778</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1681,7 +1749,11 @@
       <c r="M19" t="n">
         <v>46.0464</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1742,7 +1814,11 @@
       <c r="M20" t="n">
         <v>45.8266</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1811,7 +1887,11 @@
       <c r="M21" t="n">
         <v>12.734</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1872,7 +1952,11 @@
       <c r="M22" t="n">
         <v>30.319</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr">
         <is>
           <t>1H</t>
@@ -1941,7 +2025,11 @@
       <c r="M23" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr">
         <is>
           <t>1H</t>
@@ -2006,7 +2094,11 @@
       <c r="M24" t="n">
         <v>47.4275</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2071,7 +2163,11 @@
       <c r="M25" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2136,7 +2232,11 @@
       <c r="M26" t="n">
         <v>33.3261</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2203,7 +2303,11 @@
       <c r="M27" t="n">
         <v>17.8067</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2268,7 +2372,11 @@
       <c r="M28" t="n">
         <v>33.8341</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2335,7 +2443,11 @@
       <c r="M29" t="n">
         <v>35.778</v>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2400,7 +2512,11 @@
       <c r="M30" t="n">
         <v>46.0464</v>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2467,7 +2583,11 @@
       <c r="M31" t="n">
         <v>45.8266</v>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2534,7 +2654,11 @@
       <c r="M32" t="n">
         <v>13.7206</v>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2601,7 +2725,11 @@
       <c r="M33" t="n">
         <v>13.713</v>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2668,7 +2796,11 @@
       <c r="M34" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2727,7 +2859,11 @@
       <c r="M35" t="n">
         <v>47.4275</v>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2796,7 +2932,11 @@
       <c r="M36" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2861,7 +3001,11 @@
       <c r="M37" t="n">
         <v>33.3261</v>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2928,7 +3072,11 @@
       <c r="M38" t="n">
         <v>11.7642</v>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
           <t>2H</t>
@@ -2997,7 +3145,11 @@
       <c r="M39" t="n">
         <v>33.8341</v>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3066,7 +3218,11 @@
       <c r="M40" t="n">
         <v>35.778</v>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3131,7 +3287,11 @@
       <c r="M41" t="n">
         <v>46.0464</v>
       </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3198,7 +3358,11 @@
       <c r="M42" t="n">
         <v>45.8266</v>
       </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3267,7 +3431,11 @@
       <c r="M43" t="n">
         <v>12.7859</v>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3330,7 +3498,11 @@
       <c r="M44" t="n">
         <v>30.319</v>
       </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3399,7 +3571,11 @@
       <c r="M45" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3458,7 +3634,11 @@
       <c r="M46" t="n">
         <v>47.4275</v>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3527,7 +3707,11 @@
       <c r="M47" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3592,7 +3776,11 @@
       <c r="M48" t="n">
         <v>33.3261</v>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3659,7 +3847,11 @@
       <c r="M49" t="n">
         <v>11.7642</v>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3728,7 +3920,11 @@
       <c r="M50" t="n">
         <v>33.8341</v>
       </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3797,7 +3993,11 @@
       <c r="M51" t="n">
         <v>35.778</v>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3862,7 +4062,11 @@
       <c r="M52" t="n">
         <v>46.0464</v>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3929,7 +4133,11 @@
       <c r="M53" t="n">
         <v>45.8266</v>
       </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
           <t>2H</t>
@@ -3998,7 +4206,11 @@
       <c r="M54" t="n">
         <v>12.7859</v>
       </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4061,7 +4273,11 @@
       <c r="M55" t="n">
         <v>30.319</v>
       </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4130,7 +4346,11 @@
       <c r="M56" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4189,7 +4409,11 @@
       <c r="M57" t="n">
         <v>47.4275</v>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4258,7 +4482,11 @@
       <c r="M58" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4323,7 +4551,11 @@
       <c r="M59" t="n">
         <v>33.3261</v>
       </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4390,7 +4622,11 @@
       <c r="M60" t="n">
         <v>11.7642</v>
       </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4459,7 +4695,11 @@
       <c r="M61" t="n">
         <v>33.8341</v>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4528,7 +4768,11 @@
       <c r="M62" t="n">
         <v>35.778</v>
       </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4593,7 +4837,11 @@
       <c r="M63" t="n">
         <v>46.0464</v>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4660,7 +4908,11 @@
       <c r="M64" t="n">
         <v>45.8266</v>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4729,7 +4981,11 @@
       <c r="M65" t="n">
         <v>12.7859</v>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4792,7 +5048,11 @@
       <c r="M66" t="n">
         <v>30.319</v>
       </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4861,7 +5121,11 @@
       <c r="M67" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr">
         <is>
           <t>2H</t>
@@ -4930,7 +5194,11 @@
       <c r="M68" t="n">
         <v>47.4275</v>
       </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr">
         <is>
           <t>3H</t>
@@ -4999,7 +5267,11 @@
       <c r="M69" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr">
         <is>
           <t>3H</t>
@@ -5068,7 +5340,11 @@
       <c r="M70" t="n">
         <v>33.3261</v>
       </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr">
         <is>
           <t>3H</t>
@@ -5137,7 +5413,11 @@
       <c r="M71" t="n">
         <v>17.8067</v>
       </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr">
         <is>
           <t>3H</t>
@@ -5206,7 +5486,11 @@
       <c r="M72" t="n">
         <v>33.8341</v>
       </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr">
         <is>
           <t>3H</t>
@@ -5275,7 +5559,11 @@
       <c r="M73" t="n">
         <v>35.778</v>
       </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr">
         <is>
           <t>3H</t>
@@ -5344,7 +5632,11 @@
       <c r="M74" t="n">
         <v>46.0464</v>
       </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr">
         <is>
           <t>3H</t>
@@ -5413,7 +5705,11 @@
       <c r="M75" t="n">
         <v>45.8266</v>
       </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr">
         <is>
           <t>3H</t>
@@ -5482,7 +5778,11 @@
       <c r="M76" t="n">
         <v>14.754</v>
       </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr">
         <is>
           <t>3H</t>
@@ -5551,7 +5851,11 @@
       <c r="M77" t="n">
         <v>30.319</v>
       </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr">
         <is>
           <t>3H</t>
@@ -5620,7 +5924,11 @@
       <c r="M78" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O78" t="inlineStr">
         <is>
           <t>3H</t>
@@ -5679,7 +5987,11 @@
       <c r="M79" t="n">
         <v>47.4275</v>
       </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O79" t="inlineStr">
         <is>
           <t>5H</t>
@@ -5748,7 +6060,11 @@
       <c r="M80" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr">
         <is>
           <t>5H</t>
@@ -5813,7 +6129,11 @@
       <c r="M81" t="n">
         <v>33.3261</v>
       </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr">
         <is>
           <t>5H</t>
@@ -5880,7 +6200,11 @@
       <c r="M82" t="n">
         <v>11.1569</v>
       </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr">
         <is>
           <t>5H</t>
@@ -5949,7 +6273,11 @@
       <c r="M83" t="n">
         <v>33.8341</v>
       </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6018,7 +6346,11 @@
       <c r="M84" t="n">
         <v>35.778</v>
       </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6083,7 +6415,11 @@
       <c r="M85" t="n">
         <v>46.0464</v>
       </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6150,7 +6486,11 @@
       <c r="M86" t="n">
         <v>45.8266</v>
       </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6219,7 +6559,11 @@
       <c r="M87" t="n">
         <v>12.8589</v>
       </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6282,7 +6626,11 @@
       <c r="M88" t="n">
         <v>8.92675</v>
       </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6351,7 +6699,11 @@
       <c r="M89" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6410,7 +6762,11 @@
       <c r="M90" t="n">
         <v>47.4275</v>
       </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6479,7 +6835,11 @@
       <c r="M91" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6544,7 +6904,11 @@
       <c r="M92" t="n">
         <v>33.3261</v>
       </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6611,7 +6975,11 @@
       <c r="M93" t="n">
         <v>11.1569</v>
       </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6680,7 +7048,11 @@
       <c r="M94" t="n">
         <v>33.8341</v>
       </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6749,7 +7121,11 @@
       <c r="M95" t="n">
         <v>35.778</v>
       </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6814,7 +7190,11 @@
       <c r="M96" t="n">
         <v>46.0464</v>
       </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O96" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6881,7 +7261,11 @@
       <c r="M97" t="n">
         <v>45.8266</v>
       </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr">
         <is>
           <t>5H</t>
@@ -6950,7 +7334,11 @@
       <c r="M98" t="n">
         <v>12.8589</v>
       </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr">
         <is>
           <t>5H</t>
@@ -7013,7 +7401,11 @@
       <c r="M99" t="n">
         <v>8.92675</v>
       </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr">
         <is>
           <t>5H</t>
@@ -7082,7 +7474,11 @@
       <c r="M100" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O100" t="inlineStr">
         <is>
           <t>5H</t>
@@ -7141,7 +7537,11 @@
       <c r="M101" t="n">
         <v>47.4275</v>
       </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O101" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7208,7 +7608,11 @@
       <c r="M102" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O102" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7273,7 +7677,11 @@
       <c r="M103" t="n">
         <v>33.32615</v>
       </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O103" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7340,7 +7748,11 @@
       <c r="M104" t="n">
         <v>11.19462</v>
       </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O104" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7409,7 +7821,11 @@
       <c r="M105" t="n">
         <v>33.83411</v>
       </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O105" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7478,7 +7894,11 @@
       <c r="M106" t="n">
         <v>35.77804</v>
       </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O106" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7543,7 +7963,11 @@
       <c r="M107" t="n">
         <v>46.04636</v>
       </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7604,7 +8028,11 @@
       <c r="M108" t="n">
         <v>45.82655</v>
       </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7673,7 +8101,11 @@
       <c r="M109" t="n">
         <v>12.74743</v>
       </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7734,7 +8166,11 @@
       <c r="M110" t="n">
         <v>30.31901</v>
       </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7803,7 +8239,11 @@
       <c r="M111" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O111" t="inlineStr">
         <is>
           <t>6K</t>
@@ -7864,7 +8304,11 @@
       <c r="M112" t="n">
         <v>47.42753</v>
       </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr">
         <is>
           <t>10K</t>
@@ -7933,7 +8377,11 @@
       <c r="M113" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O113" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8000,7 +8448,11 @@
       <c r="M114" t="n">
         <v>33.32615</v>
       </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O114" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8067,7 +8519,11 @@
       <c r="M115" t="n">
         <v>17.80674</v>
       </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O115" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8136,7 +8592,11 @@
       <c r="M116" t="n">
         <v>33.83411</v>
       </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O116" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8205,7 +8665,11 @@
       <c r="M117" t="n">
         <v>35.77804</v>
       </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O117" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8272,7 +8736,11 @@
       <c r="M118" t="n">
         <v>46.04636</v>
       </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O118" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8339,7 +8807,11 @@
       <c r="M119" t="n">
         <v>45.82655</v>
       </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O119" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8408,7 +8880,11 @@
       <c r="M120" t="n">
         <v>12.63134</v>
       </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O120" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8471,7 +8947,11 @@
       <c r="M121" t="n">
         <v>30.31901</v>
       </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O121" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8540,7 +9020,11 @@
       <c r="M122" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O122" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8601,7 +9085,11 @@
       <c r="M123" t="n">
         <v>47.42753</v>
       </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8670,7 +9158,11 @@
       <c r="M124" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O124" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8737,7 +9229,11 @@
       <c r="M125" t="n">
         <v>33.32615</v>
       </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8804,7 +9300,11 @@
       <c r="M126" t="n">
         <v>17.80674</v>
       </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O126" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8873,7 +9373,11 @@
       <c r="M127" t="n">
         <v>33.83411</v>
       </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O127" t="inlineStr">
         <is>
           <t>10K</t>
@@ -8942,7 +9446,11 @@
       <c r="M128" t="n">
         <v>35.77804</v>
       </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O128" t="inlineStr">
         <is>
           <t>10K</t>
@@ -9009,7 +9517,11 @@
       <c r="M129" t="n">
         <v>46.04636</v>
       </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O129" t="inlineStr">
         <is>
           <t>10K</t>
@@ -9076,7 +9588,11 @@
       <c r="M130" t="n">
         <v>45.82655</v>
       </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O130" t="inlineStr">
         <is>
           <t>10K</t>
@@ -9145,7 +9661,11 @@
       <c r="M131" t="n">
         <v>12.63134</v>
       </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O131" t="inlineStr">
         <is>
           <t>10K</t>
@@ -9208,7 +9728,11 @@
       <c r="M132" t="n">
         <v>30.31901</v>
       </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O132" t="inlineStr">
         <is>
           <t>10K</t>
@@ -9277,7 +9801,11 @@
       <c r="M133" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr">
         <is>
           <t>10K</t>
@@ -9338,7 +9866,11 @@
       <c r="M134" t="n">
         <v>47.42753</v>
       </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O134" t="inlineStr">
         <is>
           <t>12K</t>
@@ -9407,7 +9939,11 @@
       <c r="M135" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O135" t="inlineStr">
         <is>
           <t>12K</t>
@@ -9474,7 +10010,11 @@
       <c r="M136" t="n">
         <v>33.32615</v>
       </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr">
         <is>
           <t>12K</t>
@@ -9541,7 +10081,11 @@
       <c r="M137" t="n">
         <v>17.80674</v>
       </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O137" t="inlineStr">
         <is>
           <t>12K</t>
@@ -9610,7 +10154,11 @@
       <c r="M138" t="n">
         <v>33.83411</v>
       </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O138" t="inlineStr">
         <is>
           <t>12K</t>
@@ -9679,7 +10227,11 @@
       <c r="M139" t="n">
         <v>35.77804</v>
       </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O139" t="inlineStr">
         <is>
           <t>12K</t>
@@ -9748,7 +10300,11 @@
       <c r="M140" t="n">
         <v>46.04636</v>
       </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O140" t="inlineStr">
         <is>
           <t>12K</t>
@@ -9817,7 +10373,11 @@
       <c r="M141" t="n">
         <v>45.82655</v>
       </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O141" t="inlineStr">
         <is>
           <t>12K</t>
@@ -9886,7 +10446,11 @@
       <c r="M142" t="n">
         <v>14.75399</v>
       </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O142" t="inlineStr">
         <is>
           <t>12K</t>
@@ -9955,7 +10519,11 @@
       <c r="M143" t="n">
         <v>30.31901</v>
       </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O143" t="inlineStr">
         <is>
           <t>12K</t>
@@ -10024,7 +10592,11 @@
       <c r="M144" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O144" t="inlineStr">
         <is>
           <t>12K</t>
@@ -10093,7 +10665,11 @@
       <c r="M145" t="n">
         <v>47.42753</v>
       </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr">
         <is>
           <t>15K</t>
@@ -10162,7 +10738,11 @@
       <c r="M146" t="n">
         <v>46.9392</v>
       </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O146" t="inlineStr">
         <is>
           <t>15K</t>
@@ -10231,7 +10811,11 @@
       <c r="M147" t="n">
         <v>33.32615</v>
       </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr">
         <is>
           <t>15K</t>
@@ -10300,7 +10884,11 @@
       <c r="M148" t="n">
         <v>17.80674</v>
       </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O148" t="inlineStr">
         <is>
           <t>15K</t>
@@ -10369,7 +10957,11 @@
       <c r="M149" t="n">
         <v>33.83411</v>
       </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O149" t="inlineStr">
         <is>
           <t>15K</t>
@@ -10438,7 +11030,11 @@
       <c r="M150" t="n">
         <v>35.77804</v>
       </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O150" t="inlineStr">
         <is>
           <t>15K</t>
@@ -10507,7 +11103,11 @@
       <c r="M151" t="n">
         <v>46.04636</v>
       </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O151" t="inlineStr">
         <is>
           <t>15K</t>
@@ -10576,7 +11176,11 @@
       <c r="M152" t="n">
         <v>45.82655</v>
       </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O152" t="inlineStr">
         <is>
           <t>15K</t>
@@ -10645,7 +11249,11 @@
       <c r="M153" t="n">
         <v>14.75399</v>
       </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O153" t="inlineStr">
         <is>
           <t>15K</t>
@@ -10714,7 +11322,11 @@
       <c r="M154" t="n">
         <v>30.31901</v>
       </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O154" t="inlineStr">
         <is>
           <t>15K</t>
@@ -10783,7 +11395,11 @@
       <c r="M155" t="n">
         <v>37.5952</v>
       </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
       <c r="O155" t="inlineStr">
         <is>
           <t>15K</t>

--- a/FuseLinks/Linha.xlsx
+++ b/FuseLinks/Linha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,93 +436,85 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>tipoCurto</t>
+          <t>Potência</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Tipo Curto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Tempo Abertura Fase A Isolador</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Isolador</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Isolador</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Isolador</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase C Isolador</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase C Isolador</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase A Consumidor</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Consumidor</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Consumidor</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Consumidor</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>valorFusivel_Isolador</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>valorFusivel_Consumidor</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Potência</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15KVA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14.9494</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -546,7 +538,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>14.9494</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,38 +550,28 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>15KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15KVA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -625,38 +607,28 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>15KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15KVA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -692,38 +664,28 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>15KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15KVA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14.9403</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -747,7 +709,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14.9403</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -759,38 +721,28 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>15KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15KVA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -826,36 +778,28 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>15KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>25KVA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.5940260000000001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>23.3566</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0.5940260000000001</v>
@@ -869,13 +813,11 @@
       <c r="G7" t="n">
         <v>23.3566</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H7" t="n">
+        <v>0.5940260000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.3566</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -887,38 +829,28 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>25KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>25KVA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -954,38 +886,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>25KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>25KVA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>15.1669</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1009,7 +931,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.1669</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1021,36 +943,28 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>25KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>25KVA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.592896</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23.3765</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0.592896</v>
@@ -1064,13 +978,11 @@
       <c r="G10" t="n">
         <v>23.3765</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H10" t="n">
+        <v>0.592896</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.3765</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1082,38 +994,28 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>25KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>25KVA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1149,36 +1051,28 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>25KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30KVA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1.22173</v>
-      </c>
-      <c r="C12" t="n">
-        <v>27.1439</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>1.22173</v>
@@ -1192,13 +1086,11 @@
       <c r="G12" t="n">
         <v>27.1439</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H12" t="n">
+        <v>1.22173</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>27.1439</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1210,38 +1102,28 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>30KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30KVA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>12.6958</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1265,7 +1147,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.6958</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1277,38 +1159,28 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>30KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>30KVA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>17.1336</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1332,7 +1204,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>17.1336</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1344,36 +1216,28 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>30KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>30KVA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1.21917</v>
-      </c>
-      <c r="C15" t="n">
-        <v>27.1714</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>1.21917</v>
@@ -1387,13 +1251,11 @@
       <c r="G15" t="n">
         <v>27.1714</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H15" t="n">
+        <v>1.21917</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>27.1714</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1405,38 +1267,28 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>30KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>30KVA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,36 +1324,28 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>1H</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>30KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>37.5KVA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.847627</v>
-      </c>
-      <c r="C17" t="n">
-        <v>32.3545</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0.847627</v>
@@ -1515,13 +1359,11 @@
       <c r="G17" t="n">
         <v>32.3545</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H17" t="n">
+        <v>0.847627</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>32.3545</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1533,38 +1375,28 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>37.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>37.5KVA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>14.0195</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1588,7 +1420,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.0195</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1600,38 +1432,28 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>37.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>37.5KVA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>21.6513</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1655,7 +1477,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>21.6513</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1667,36 +1489,28 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>37.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>37.5KVA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.844392</v>
-      </c>
-      <c r="C20" t="n">
-        <v>32.4137</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0.844392</v>
@@ -1710,13 +1524,11 @@
       <c r="G20" t="n">
         <v>32.4137</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H20" t="n">
+        <v>0.844392</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>32.4137</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1728,38 +1540,28 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>37.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>37.5KVA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,36 +1597,28 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>37.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>45KVA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.635928</v>
-      </c>
-      <c r="C22" t="n">
-        <v>37.0948</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0.635928</v>
@@ -1838,13 +1632,11 @@
       <c r="G22" t="n">
         <v>37.0948</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H22" t="n">
+        <v>0.635928</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>37.0948</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1856,38 +1648,28 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>45KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>45KVA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>13.0333</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1693,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>13.0333</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1919,42 +1701,32 @@
         </is>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>11.8737</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>45KVA</t>
-        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>45KVA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>25.0264</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1978,7 +1750,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>25.0264</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1990,36 +1762,28 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>45KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>45KVA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.6381829999999999</v>
-      </c>
-      <c r="C25" t="n">
-        <v>37.0327</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0.6381829999999999</v>
@@ -2033,13 +1797,11 @@
       <c r="G25" t="n">
         <v>37.0327</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H25" t="n">
+        <v>0.6381829999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>37.0327</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2051,38 +1813,28 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>45KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>45KVA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2118,36 +1870,28 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>45KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>50KVA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.542967</v>
-      </c>
-      <c r="C27" t="n">
-        <v>39.9663</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0.542967</v>
@@ -2161,13 +1905,11 @@
       <c r="G27" t="n">
         <v>39.9663</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H27" t="n">
+        <v>0.542967</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>39.9663</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2179,38 +1921,28 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>50KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>50KVA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>16.5836</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2234,7 +1966,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>16.5836</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2242,42 +1974,32 @@
         </is>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>11.4518</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>50KVA</t>
-        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>50KVA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>26.5417</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2301,7 +2023,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>26.5417</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2313,36 +2035,28 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>50KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>50KVA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.536855</v>
-      </c>
-      <c r="C30" t="n">
-        <v>40.1796</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0.536855</v>
@@ -2356,13 +2070,11 @@
       <c r="G30" t="n">
         <v>40.1796</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H30" t="n">
+        <v>0.536855</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>40.1796</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2374,38 +2086,28 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>50KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>50KVA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2441,38 +2143,28 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>50KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>75KVA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>51.9177</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2496,7 +2188,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>51.9177</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2508,38 +2200,28 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>75KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>75KVA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>21.4057</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2563,7 +2245,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>21.4057</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2575,38 +2257,28 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>75KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>75KVA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>33.421</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2630,7 +2302,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.421</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2642,38 +2314,28 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>75KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>75KVA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>51.922</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2697,7 +2359,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>51.922</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2709,38 +2371,28 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>75KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>75KVA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2776,38 +2428,28 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>75KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>100KVA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>60.7274</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2831,7 +2473,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.7274</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2843,38 +2485,28 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>100KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>100KVA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>25.8464</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2898,50 +2530,40 @@
         </is>
       </c>
       <c r="I38" t="n">
+        <v>25.8464</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>12.833</v>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>12.9663</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>100KVA</t>
-        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>100KVA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>38.191</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2965,48 +2587,40 @@
         </is>
       </c>
       <c r="I39" t="n">
+        <v>38.191</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>12.6409</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>100KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>100KVA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0.190657</v>
-      </c>
-      <c r="C40" t="n">
-        <v>60.8794</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0.190657</v>
@@ -3020,13 +2634,11 @@
       <c r="G40" t="n">
         <v>60.8794</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H40" t="n">
+        <v>0.190657</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.8794</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3038,38 +2650,28 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>100KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>100KVA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3105,36 +2707,28 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>100KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>112.5KVA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0.168448</v>
-      </c>
-      <c r="C42" t="n">
-        <v>64.3254</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0.168448</v>
@@ -3148,13 +2742,11 @@
       <c r="G42" t="n">
         <v>64.3254</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H42" t="n">
+        <v>0.168448</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>64.3254</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3166,38 +2758,28 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>112.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>112.5KVA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>27.6241</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3221,50 +2803,40 @@
         </is>
       </c>
       <c r="I43" t="n">
+        <v>27.6241</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>12.7149</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>12.9482</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>112.5KVA</t>
-        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>112.5KVA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>40.0855</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3288,48 +2860,40 @@
         </is>
       </c>
       <c r="I44" t="n">
+        <v>40.0855</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>12.6222</v>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>112.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>112.5KVA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0.168072</v>
-      </c>
-      <c r="C45" t="n">
-        <v>64.3899</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0.168072</v>
@@ -3343,13 +2907,11 @@
       <c r="G45" t="n">
         <v>64.3899</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H45" t="n">
+        <v>0.168072</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>64.3899</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3361,38 +2923,28 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>112.5KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>112.5KVA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>12.718</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3416,48 +2968,40 @@
         </is>
       </c>
       <c r="I46" t="n">
+        <v>12.718</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>12.7088</v>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>12.6893</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>112.5KVA</t>
-        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>150KVA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>0.13674</v>
-      </c>
-      <c r="C47" t="n">
-        <v>72.4877</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0.13674</v>
@@ -3471,56 +3015,44 @@
       <c r="G47" t="n">
         <v>72.4877</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H47" t="n">
+        <v>0.13674</v>
       </c>
       <c r="I47" t="n">
+        <v>72.4877</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>12.8092</v>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>150KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>150KVA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>32.0072</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3544,50 +3076,40 @@
         </is>
       </c>
       <c r="I48" t="n">
+        <v>32.0072</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>12.9743</v>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>13.1037</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>150KVA</t>
-        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>150KVA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>46.1581</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3611,48 +3133,40 @@
         </is>
       </c>
       <c r="I49" t="n">
+        <v>46.1581</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>13.031</v>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>150KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>150KVA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>0.136784</v>
-      </c>
-      <c r="C50" t="n">
-        <v>72.473</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0.136784</v>
@@ -3666,13 +3180,11 @@
       <c r="G50" t="n">
         <v>72.473</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H50" t="n">
+        <v>0.136784</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>72.473</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3684,38 +3196,28 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>150KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>150KVA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>12.9131</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3739,50 +3241,40 @@
         </is>
       </c>
       <c r="I51" t="n">
+        <v>12.9131</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>12.9074</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>12.8453</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>6K</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>150KVA</t>
-        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>200KVA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>79.9819</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3806,50 +3298,40 @@
         </is>
       </c>
       <c r="I52" t="n">
+        <v>79.9819</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>12.9568</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>13.0421</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>200KVA</t>
-        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>200KVA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>35.6148</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3873,48 +3355,40 @@
         </is>
       </c>
       <c r="I53" t="n">
+        <v>35.6148</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>13.0083</v>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>13.0376</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>200KVA</t>
-        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>200KVA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>0.600357</v>
-      </c>
-      <c r="C54" t="n">
-        <v>48.4517</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0.600357</v>
@@ -3928,54 +3402,44 @@
       <c r="G54" t="n">
         <v>48.4517</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H54" t="n">
+        <v>0.600357</v>
       </c>
       <c r="I54" t="n">
+        <v>48.4517</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>20.3978</v>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>6.35927</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>200KVA</t>
-        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>200KVA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>0.356976</v>
-      </c>
-      <c r="C55" t="n">
-        <v>64.12949999999999</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0.356976</v>
@@ -3989,56 +3453,44 @@
       <c r="G55" t="n">
         <v>64.12949999999999</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H55" t="n">
+        <v>0.356976</v>
       </c>
       <c r="I55" t="n">
+        <v>64.12949999999999</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>6.44723</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>13.0158</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>200KVA</t>
-        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>200KVA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>13.0268</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4062,50 +3514,40 @@
         </is>
       </c>
       <c r="I56" t="n">
+        <v>13.0268</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>13.0182</v>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>12.9611</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>200KVA</t>
-        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>225KVA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>13.0041</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4129,50 +3571,40 @@
         </is>
       </c>
       <c r="I57" t="n">
+        <v>13.0041</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>13.0211</v>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>0.00182617</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>225KVA</t>
-        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>225KVA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>38.0051</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4196,50 +3628,40 @@
         </is>
       </c>
       <c r="I58" t="n">
+        <v>38.0051</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>10.4034</v>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>13.0935</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>225KVA</t>
-        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>225KVA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>49.7229</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4263,48 +3685,40 @@
         </is>
       </c>
       <c r="I59" t="n">
+        <v>49.7229</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>13.0284</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>13.0536</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>225KVA</t>
-        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>225KVA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>0.25441</v>
-      </c>
-      <c r="C60" t="n">
-        <v>82.6358</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>0.25441</v>
@@ -4318,56 +3732,44 @@
       <c r="G60" t="n">
         <v>82.6358</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H60" t="n">
+        <v>0.25441</v>
       </c>
       <c r="I60" t="n">
+        <v>82.6358</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>6.49397</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>6.4848</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>225KVA</t>
-        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>225KVA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>12.987</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4391,48 +3793,40 @@
         </is>
       </c>
       <c r="I61" t="n">
+        <v>12.987</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>13.0763</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>13.0793</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>225KVA</t>
-        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>0.356529</v>
-      </c>
-      <c r="C62" t="n">
-        <v>85.02379999999999</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D62" t="n">
         <v>0.356529</v>
@@ -4446,56 +3840,44 @@
       <c r="G62" t="n">
         <v>85.02379999999999</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H62" t="n">
+        <v>0.356529</v>
       </c>
       <c r="I62" t="n">
+        <v>85.02379999999999</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>0.00156425</v>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>13.0252</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>250KVA</t>
-        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>30.3896</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4519,50 +3901,40 @@
         </is>
       </c>
       <c r="I63" t="n">
+        <v>30.3896</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>13.0936</v>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>13.0215</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>250KVA</t>
-        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>13.0051</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,50 +3958,40 @@
         </is>
       </c>
       <c r="I64" t="n">
+        <v>13.0051</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>13.0814</v>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>13.1416</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>250KVA</t>
-        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>13.0352</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4653,50 +4015,40 @@
         </is>
       </c>
       <c r="I65" t="n">
+        <v>13.0352</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>13.0107</v>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>13.0453</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>250KVA</t>
-        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>13.0262</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,50 +4072,40 @@
         </is>
       </c>
       <c r="I66" t="n">
+        <v>13.0262</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>13.0395</v>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>13.0342</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>12K</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>250KVA</t>
-        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>Curto ABC</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>13.1085</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4787,50 +4129,40 @@
         </is>
       </c>
       <c r="I67" t="n">
+        <v>13.1085</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>13.118</v>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>13.1277</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>300KVA</t>
-        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>Curto AC</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>13.1304</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4854,50 +4186,40 @@
         </is>
       </c>
       <c r="I68" t="n">
+        <v>13.1304</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>13.1529</v>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>13.1074</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>300KVA</t>
-        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>Curto BC</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>13.0978</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4921,50 +4243,40 @@
         </is>
       </c>
       <c r="I69" t="n">
+        <v>13.0978</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>12.7832</v>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>13.1113</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>300KVA</t>
-        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Curto AB</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>13.0976</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4988,7 +4300,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>13.0987</v>
+        <v>13.0976</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5000,38 +4312,28 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>300KVA</t>
-        </is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>13.0987</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>Funcionamento Normal</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>13.0442</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Linha T2F</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5055,35 +4357,23 @@
         </is>
       </c>
       <c r="I71" t="n">
+        <v>13.0442</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>13.0529</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>13.0621</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Linha T2F</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>300KVA</t>
-        </is>
       </c>
     </row>
   </sheetData>
